--- a/absences_travail_tp.xlsx
+++ b/absences_travail_tp.xlsx
@@ -32,7 +32,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="I4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Indicateur sur 100</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Indicateur sur 100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,12 +85,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="I87" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Indicateur sur 100
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="324">
   <si>
     <t>N°Ins</t>
   </si>
@@ -1024,6 +1064,18 @@
   </si>
   <si>
     <t xml:space="preserve">A </t>
+  </si>
+  <si>
+    <t>KADADA</t>
+  </si>
+  <si>
+    <t>SALAH EDDINE</t>
+  </si>
+  <si>
+    <t>A(malade ?)</t>
+  </si>
+  <si>
+    <t>(Sorti avant le TP ?)</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1364,6 +1416,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1666,10 +1721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G140"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1681,9 +1736,11 @@
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="39" t="s">
         <v>36</v>
       </c>
@@ -1691,7 +1748,7 @@
       <c r="C1" s="39"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" s="38" t="s">
         <v>37</v>
       </c>
@@ -1699,8 +1756,9 @@
       <c r="C2" s="38"/>
       <c r="D2" s="8"/>
       <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -1708,8 +1766,12 @@
         <v>42670</v>
       </c>
       <c r="G3" s="37"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="37">
+        <v>42677</v>
+      </c>
+      <c r="I3" s="37"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="29"/>
       <c r="B4" s="30" t="s">
         <v>0</v>
@@ -1729,8 +1791,14 @@
       <c r="G4" s="33" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1750,8 +1818,12 @@
       <c r="G5" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="24"/>
+      <c r="I5" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1771,8 +1843,12 @@
       <c r="G6" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="24"/>
+      <c r="I6" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1792,8 +1868,12 @@
       <c r="G7" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="24"/>
+      <c r="I7" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1813,8 +1893,12 @@
       <c r="G8" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="24"/>
+      <c r="I8" s="25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1834,8 +1918,12 @@
       <c r="G9" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="24"/>
+      <c r="I9" s="25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1855,8 +1943,12 @@
         <v>315</v>
       </c>
       <c r="G10" s="25"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="24"/>
+      <c r="I10" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1876,8 +1968,12 @@
       <c r="G11" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="24"/>
+      <c r="I11" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1897,8 +1993,12 @@
       <c r="G12" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="24"/>
+      <c r="I12" s="25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1918,8 +2018,12 @@
       <c r="G13" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="24"/>
+      <c r="I13" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1939,8 +2043,12 @@
         <v>315</v>
       </c>
       <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="24"/>
+      <c r="I14" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1960,8 +2068,12 @@
       <c r="G15" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="24"/>
+      <c r="I15" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1981,8 +2093,12 @@
       <c r="G16" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="24"/>
+      <c r="I16" s="25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -2002,8 +2118,12 @@
         <v>315</v>
       </c>
       <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="24"/>
+      <c r="I17" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -2023,8 +2143,12 @@
         <v>315</v>
       </c>
       <c r="G18" s="25"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -2044,8 +2168,12 @@
         <v>315</v>
       </c>
       <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="26"/>
+      <c r="I19" s="25" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -2065,8 +2193,12 @@
       <c r="G20" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="24"/>
+      <c r="I20" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -2086,8 +2218,12 @@
       <c r="G21" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="24"/>
+      <c r="I21" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -2107,8 +2243,12 @@
         <v>315</v>
       </c>
       <c r="G22" s="25"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2128,8 +2268,12 @@
       <c r="G23" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="24"/>
+      <c r="I23" s="25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2149,8 +2293,12 @@
         <v>315</v>
       </c>
       <c r="G24" s="25"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2167,9 +2315,15 @@
         <v>1</v>
       </c>
       <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="25">
+        <v>70</v>
+      </c>
+      <c r="H25" s="40"/>
+      <c r="I25" s="25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2189,8 +2343,12 @@
         <v>315</v>
       </c>
       <c r="G26" s="25"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="24"/>
+      <c r="I26" s="25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2210,8 +2368,12 @@
       <c r="G27" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="24"/>
+      <c r="I27" s="25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2231,8 +2393,12 @@
         <v>315</v>
       </c>
       <c r="G28" s="25"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="I28" s="25"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2252,8 +2418,12 @@
         <v>315</v>
       </c>
       <c r="G29" s="25"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="24"/>
+      <c r="I29" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2273,8 +2443,12 @@
       <c r="G30" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="24"/>
+      <c r="I30" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2294,8 +2468,12 @@
         <v>315</v>
       </c>
       <c r="G31" s="25"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2315,8 +2493,12 @@
       <c r="G32" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="24"/>
+      <c r="I32" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2336,8 +2518,12 @@
       <c r="G33" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="24"/>
+      <c r="I33" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2357,8 +2543,12 @@
       <c r="G34" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="24"/>
+      <c r="I34" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2378,8 +2568,12 @@
         <v>315</v>
       </c>
       <c r="G35" s="25"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="24"/>
+      <c r="I35" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2399,8 +2593,12 @@
       <c r="G36" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="24"/>
+      <c r="I36" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -2420,8 +2618,12 @@
       <c r="G37" s="27">
         <v>90</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="24"/>
+      <c r="I37" s="27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -2441,8 +2643,12 @@
       <c r="G38" s="27">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="24"/>
+      <c r="I38" s="27">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -2462,8 +2668,12 @@
       <c r="G39" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" s="24"/>
+      <c r="I39" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="19">
         <v>36</v>
       </c>
@@ -2483,8 +2693,14 @@
       <c r="G40" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="I40" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -2504,17 +2720,29 @@
       <c r="G41" s="36">
         <v>50</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="I41" s="36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="5"/>
       <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
+      <c r="C42" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>321</v>
+      </c>
       <c r="E42" s="4"/>
       <c r="F42" s="5"/>
       <c r="G42" s="21"/>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" s="5"/>
+      <c r="I42" s="21"/>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="5"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -2522,8 +2750,10 @@
       <c r="E43" s="4"/>
       <c r="F43" s="5"/>
       <c r="G43" s="21"/>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" s="5"/>
+      <c r="I43" s="21"/>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="39" t="s">
         <v>36</v>
       </c>
@@ -2533,8 +2763,10 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="21"/>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" s="5"/>
+      <c r="I44" s="21"/>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="38" t="s">
         <v>135</v>
       </c>
@@ -2544,8 +2776,10 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="21"/>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" s="5"/>
+      <c r="I45" s="21"/>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="12"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -2555,8 +2789,12 @@
         <v>42670</v>
       </c>
       <c r="G46" s="37"/>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" s="37">
+        <v>42677</v>
+      </c>
+      <c r="I46" s="37"/>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="29"/>
       <c r="B47" s="30" t="s">
         <v>0</v>
@@ -2576,8 +2814,14 @@
       <c r="G47" s="33" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="I47" s="33" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="6">
         <v>1</v>
       </c>
@@ -2597,8 +2841,12 @@
         <v>315</v>
       </c>
       <c r="G48" s="25"/>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="I48" s="25"/>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="3">
         <v>2</v>
       </c>
@@ -2618,8 +2866,12 @@
         <v>315</v>
       </c>
       <c r="G49" s="25"/>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" s="26"/>
+      <c r="I49" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="6">
         <v>3</v>
       </c>
@@ -2639,8 +2891,12 @@
       <c r="G50" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" s="26"/>
+      <c r="I50" s="25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="3">
         <v>4</v>
       </c>
@@ -2660,8 +2916,12 @@
       <c r="G51" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" s="26"/>
+      <c r="I51" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="6">
         <v>5</v>
       </c>
@@ -2681,8 +2941,12 @@
       <c r="G52" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" s="26"/>
+      <c r="I52" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="3">
         <v>6</v>
       </c>
@@ -2702,8 +2966,12 @@
       <c r="G53" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" s="26"/>
+      <c r="I53" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="6">
         <v>7</v>
       </c>
@@ -2723,8 +2991,12 @@
       <c r="G54" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" s="26"/>
+      <c r="I54" s="25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="3">
         <v>8</v>
       </c>
@@ -2744,8 +3016,12 @@
         <v>315</v>
       </c>
       <c r="G55" s="25"/>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="I55" s="25"/>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="6">
         <v>9</v>
       </c>
@@ -2762,9 +3038,15 @@
         <v>2</v>
       </c>
       <c r="F56" s="24"/>
-      <c r="G56" s="25"/>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="G56" s="25">
+        <v>50</v>
+      </c>
+      <c r="H56" s="26"/>
+      <c r="I56" s="25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="3">
         <v>10</v>
       </c>
@@ -2784,8 +3066,12 @@
         <v>315</v>
       </c>
       <c r="G57" s="25"/>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="I57" s="25"/>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="6">
         <v>11</v>
       </c>
@@ -2805,8 +3091,12 @@
         <v>315</v>
       </c>
       <c r="G58" s="25"/>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="I58" s="25"/>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="3">
         <v>12</v>
       </c>
@@ -2826,8 +3116,12 @@
       <c r="G59" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" s="26"/>
+      <c r="I59" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="6">
         <v>13</v>
       </c>
@@ -2847,8 +3141,12 @@
       <c r="G60" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" s="26"/>
+      <c r="I60" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="3">
         <v>14</v>
       </c>
@@ -2868,8 +3166,12 @@
       <c r="G61" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" s="26"/>
+      <c r="I61" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="6">
         <v>15</v>
       </c>
@@ -2889,8 +3191,12 @@
       <c r="G62" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" s="26"/>
+      <c r="I62" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="3">
         <v>16</v>
       </c>
@@ -2910,8 +3216,12 @@
       <c r="G63" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" s="26"/>
+      <c r="I63" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="6">
         <v>17</v>
       </c>
@@ -2931,8 +3241,12 @@
       <c r="G64" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" s="26"/>
+      <c r="I64" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="3">
         <v>18</v>
       </c>
@@ -2952,8 +3266,12 @@
       <c r="G65" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65" s="26"/>
+      <c r="I65" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="6">
         <v>19</v>
       </c>
@@ -2973,8 +3291,12 @@
       <c r="G66" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" s="26"/>
+      <c r="I66" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="3">
         <v>20</v>
       </c>
@@ -2994,8 +3316,12 @@
       <c r="G67" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" s="26"/>
+      <c r="I67" s="25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="6">
         <v>21</v>
       </c>
@@ -3015,8 +3341,12 @@
         <v>315</v>
       </c>
       <c r="G68" s="25"/>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="I68" s="25"/>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="3">
         <v>22</v>
       </c>
@@ -3036,8 +3366,12 @@
       <c r="G69" s="27">
         <v>80</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69" s="26"/>
+      <c r="I69" s="27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="6">
         <v>23</v>
       </c>
@@ -3057,8 +3391,12 @@
         <v>315</v>
       </c>
       <c r="G70" s="25"/>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="I70" s="25"/>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="3">
         <v>24</v>
       </c>
@@ -3078,8 +3416,12 @@
         <v>315</v>
       </c>
       <c r="G71" s="25"/>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="I71" s="25"/>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="6">
         <v>25</v>
       </c>
@@ -3099,8 +3441,12 @@
         <v>315</v>
       </c>
       <c r="G72" s="25"/>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="I72" s="25"/>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="3">
         <v>26</v>
       </c>
@@ -3120,8 +3466,12 @@
         <v>315</v>
       </c>
       <c r="G73" s="25"/>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="I73" s="25"/>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="6">
         <v>27</v>
       </c>
@@ -3141,8 +3491,12 @@
       <c r="G74" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" s="26"/>
+      <c r="I74" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="3">
         <v>28</v>
       </c>
@@ -3162,8 +3516,12 @@
       <c r="G75" s="27">
         <v>70</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" s="26"/>
+      <c r="I75" s="27">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="3">
         <v>29</v>
       </c>
@@ -3183,8 +3541,12 @@
         <v>315</v>
       </c>
       <c r="G76" s="25"/>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76" s="26"/>
+      <c r="I76" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="6">
         <v>30</v>
       </c>
@@ -3204,8 +3566,12 @@
       <c r="G77" s="27">
         <v>90</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77" s="26"/>
+      <c r="I77" s="27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="3">
         <v>31</v>
       </c>
@@ -3225,8 +3591,12 @@
       <c r="G78" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78" s="26"/>
+      <c r="I78" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="3">
         <v>32</v>
       </c>
@@ -3246,8 +3616,12 @@
       <c r="G79" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79" s="26"/>
+      <c r="I79" s="25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="6">
         <v>33</v>
       </c>
@@ -3267,8 +3641,12 @@
         <v>315</v>
       </c>
       <c r="G80" s="25"/>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="I80" s="25"/>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="3">
         <v>34</v>
       </c>
@@ -3288,8 +3666,12 @@
         <v>315</v>
       </c>
       <c r="G81" s="25"/>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81" s="26"/>
+      <c r="I81" s="25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="6">
         <v>35</v>
       </c>
@@ -3309,8 +3691,12 @@
         <v>315</v>
       </c>
       <c r="G82" s="25"/>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="I82" s="25"/>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="3">
         <v>36</v>
       </c>
@@ -3330,8 +3716,12 @@
         <v>315</v>
       </c>
       <c r="G83" s="25"/>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="I83" s="25"/>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="5"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -3339,8 +3729,10 @@
       <c r="E84" s="17"/>
       <c r="F84" s="5"/>
       <c r="G84" s="21"/>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84" s="5"/>
+      <c r="I84" s="21"/>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="15"/>
       <c r="B85" s="9" t="s">
         <v>36</v>
@@ -3350,8 +3742,10 @@
       <c r="E85" s="15"/>
       <c r="F85" s="34"/>
       <c r="G85" s="35"/>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85" s="34"/>
+      <c r="I85" s="35"/>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="15"/>
       <c r="B86" s="10" t="s">
         <v>223</v>
@@ -3363,8 +3757,12 @@
         <v>42670</v>
       </c>
       <c r="G86" s="37"/>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86" s="37">
+        <v>42677</v>
+      </c>
+      <c r="I86" s="37"/>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="29"/>
       <c r="B87" s="30" t="s">
         <v>0</v>
@@ -3384,8 +3782,14 @@
       <c r="G87" s="33" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="I87" s="33" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="6">
         <v>1</v>
       </c>
@@ -3399,14 +3803,18 @@
         <v>226</v>
       </c>
       <c r="E88" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F88" s="26"/>
       <c r="G88" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88" s="26"/>
+      <c r="I88" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="3">
         <v>2</v>
       </c>
@@ -3426,8 +3834,12 @@
         <v>315</v>
       </c>
       <c r="G89" s="25"/>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89" s="26"/>
+      <c r="I89" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="6">
         <v>3</v>
       </c>
@@ -3447,8 +3859,12 @@
       <c r="G90" s="27">
         <v>80</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90" s="26"/>
+      <c r="I90" s="27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="3">
         <v>4</v>
       </c>
@@ -3468,8 +3884,12 @@
         <v>319</v>
       </c>
       <c r="G91" s="25"/>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="I91" s="25"/>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="6">
         <v>5</v>
       </c>
@@ -3483,14 +3903,18 @@
         <v>13</v>
       </c>
       <c r="E92" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F92" s="26"/>
       <c r="G92" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92" s="26"/>
+      <c r="I92" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="3">
         <v>6</v>
       </c>
@@ -3510,8 +3934,12 @@
         <v>315</v>
       </c>
       <c r="G93" s="25"/>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93" s="26"/>
+      <c r="I93" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="6">
         <v>7</v>
       </c>
@@ -3531,8 +3959,12 @@
       <c r="G94" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94" s="26"/>
+      <c r="I94" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="3">
         <v>8</v>
       </c>
@@ -3552,8 +3984,12 @@
         <v>315</v>
       </c>
       <c r="G95" s="25"/>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95" s="26"/>
+      <c r="I95" s="25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="6">
         <v>9</v>
       </c>
@@ -3573,8 +4009,12 @@
       <c r="G96" s="27">
         <v>80</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96" s="26"/>
+      <c r="I96" s="27">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="3">
         <v>10</v>
       </c>
@@ -3594,8 +4034,12 @@
         <v>315</v>
       </c>
       <c r="G97" s="25"/>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97" s="26"/>
+      <c r="I97" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="6">
         <v>11</v>
       </c>
@@ -3615,8 +4059,12 @@
         <v>315</v>
       </c>
       <c r="G98" s="25"/>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98" s="26"/>
+      <c r="I98" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="3">
         <v>12</v>
       </c>
@@ -3636,8 +4084,12 @@
       <c r="G99" s="27">
         <v>50</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99" s="26"/>
+      <c r="I99" s="27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="6">
         <v>13</v>
       </c>
@@ -3657,8 +4109,12 @@
         <v>315</v>
       </c>
       <c r="G100" s="25"/>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100" s="26"/>
+      <c r="I100" s="25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="3">
         <v>14</v>
       </c>
@@ -3678,8 +4134,12 @@
         <v>315</v>
       </c>
       <c r="G101" s="25"/>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="I101" s="25"/>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="6">
         <v>15</v>
       </c>
@@ -3699,8 +4159,12 @@
         <v>315</v>
       </c>
       <c r="G102" s="25"/>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102" s="26"/>
+      <c r="I102" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="3">
         <v>16</v>
       </c>
@@ -3720,8 +4184,12 @@
         <v>315</v>
       </c>
       <c r="G103" s="25"/>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="I103" s="25"/>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="6">
         <v>17</v>
       </c>
@@ -3741,8 +4209,12 @@
         <v>315</v>
       </c>
       <c r="G104" s="25"/>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="I104" s="25"/>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="3">
         <v>18</v>
       </c>
@@ -3762,8 +4234,12 @@
       <c r="G105" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105" s="26"/>
+      <c r="I105" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="6">
         <v>19</v>
       </c>
@@ -3783,8 +4259,12 @@
       <c r="G106" s="27">
         <v>90</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106" s="26"/>
+      <c r="I106" s="27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="3">
         <v>20</v>
       </c>
@@ -3804,8 +4284,12 @@
         <v>315</v>
       </c>
       <c r="G107" s="25"/>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107" s="26"/>
+      <c r="I107" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="6">
         <v>21</v>
       </c>
@@ -3825,8 +4309,12 @@
         <v>315</v>
       </c>
       <c r="G108" s="25"/>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="I108" s="25"/>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="3">
         <v>22</v>
       </c>
@@ -3846,8 +4334,12 @@
         <v>315</v>
       </c>
       <c r="G109" s="25"/>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109" s="26"/>
+      <c r="I109" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="6">
         <v>23</v>
       </c>
@@ -3867,8 +4359,10 @@
         <v>315</v>
       </c>
       <c r="G110" s="25"/>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110" s="26"/>
+      <c r="I110" s="25"/>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="3">
         <v>24</v>
       </c>
@@ -3885,9 +4379,15 @@
         <v>3</v>
       </c>
       <c r="F111" s="24"/>
-      <c r="G111" s="27"/>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="G111" s="27">
+        <v>50</v>
+      </c>
+      <c r="H111" s="26"/>
+      <c r="I111" s="27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="6">
         <v>25</v>
       </c>
@@ -3907,8 +4407,12 @@
       <c r="G112" s="27">
         <v>85</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112" s="26"/>
+      <c r="I112" s="27">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="3">
         <v>26</v>
       </c>
@@ -3926,8 +4430,12 @@
       </c>
       <c r="F113" s="24"/>
       <c r="G113" s="27"/>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113" s="26"/>
+      <c r="I113" s="27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="6">
         <v>27</v>
       </c>
@@ -3947,8 +4455,12 @@
       <c r="G114" s="27">
         <v>85</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114" s="26"/>
+      <c r="I114" s="27">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="3">
         <v>28</v>
       </c>
@@ -3968,8 +4480,12 @@
         <v>315</v>
       </c>
       <c r="G115" s="25"/>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115" s="26"/>
+      <c r="I115" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="6">
         <v>29</v>
       </c>
@@ -3988,11 +4504,13 @@
       <c r="F116" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="G116" s="27">
+      <c r="G116" s="27"/>
+      <c r="H116" s="26"/>
+      <c r="I116" s="27">
         <v>70</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:9">
       <c r="A117" s="3">
         <v>30</v>
       </c>
@@ -4012,8 +4530,12 @@
       <c r="G117" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117" s="26"/>
+      <c r="I117" s="25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="6">
         <v>31</v>
       </c>
@@ -4033,8 +4555,12 @@
       <c r="G118" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118" s="26"/>
+      <c r="I118" s="27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="3">
         <v>32</v>
       </c>
@@ -4054,8 +4580,12 @@
       <c r="G119" s="27">
         <v>70</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119" s="26"/>
+      <c r="I119" s="27">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="6">
         <v>33</v>
       </c>
@@ -4075,8 +4605,12 @@
         <v>315</v>
       </c>
       <c r="G120" s="25"/>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120" s="26"/>
+      <c r="I120" s="25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="3">
         <v>34</v>
       </c>
@@ -4096,8 +4630,12 @@
         <v>315</v>
       </c>
       <c r="G121" s="25"/>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="H121" s="26"/>
+      <c r="I121" s="25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="6">
         <v>35</v>
       </c>
@@ -4117,8 +4655,12 @@
         <v>315</v>
       </c>
       <c r="G122" s="25"/>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122" s="26"/>
+      <c r="I122" s="25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="3">
         <v>36</v>
       </c>
@@ -4138,8 +4680,12 @@
         <v>315</v>
       </c>
       <c r="G123" s="25"/>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123" s="26"/>
+      <c r="I123" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="6">
         <v>37</v>
       </c>
@@ -4159,14 +4705,24 @@
         <v>315</v>
       </c>
       <c r="G124" s="25"/>
-    </row>
-    <row r="140" spans="7:7">
+      <c r="H124" s="26"/>
+      <c r="I124" s="25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="140" spans="7:9">
       <c r="G140" s="20" t="s">
         <v>316</v>
       </c>
+      <c r="I140" s="20" t="s">
+        <v>316</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H86:I86"/>
     <mergeCell ref="F86:G86"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="A2:C2"/>

--- a/absences_travail_tp.xlsx
+++ b/absences_travail_tp.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mounir\Desktop\Cours programmation Web\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="20060" windowHeight="7940"/>
   </bookViews>
   <sheets>
     <sheet name="isil" sheetId="2" r:id="rId1"/>
@@ -19,7 +24,7 @@
     <author>paps</author>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -32,7 +37,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G47" authorId="0">
+    <comment ref="L4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I47" authorId="0">
+    <comment ref="O4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +76,163 @@
         </r>
       </text>
     </comment>
-    <comment ref="G87" authorId="0">
+    <comment ref="R4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Indicateur sur 100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Indicateur sur 100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Indicateur sur 100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Indicateur sur 100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G47" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Indicateur sur 100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I47" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Indicateur sur 100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L50" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Indicateur sur 100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O50" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Indicateur sur 100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R50" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Indicateur sur 100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T50" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Indicateur sur 100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W50" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Indicateur sur 100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z50" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Indicateur sur 100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G87" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +246,91 @@
         </r>
       </text>
     </comment>
-    <comment ref="I87" authorId="0">
+    <comment ref="I87" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Indicateur sur 100
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L92" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Indicateur sur 100
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O92" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Indicateur sur 100
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R92" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Indicateur sur 100
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T92" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Indicateur sur 100
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W92" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Indicateur sur 100
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z92" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +349,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="341">
   <si>
     <t>N°Ins</t>
   </si>
@@ -1076,13 +1321,64 @@
   </si>
   <si>
     <t>(Sorti avant le TP ?)</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>13;5</t>
+  </si>
+  <si>
+    <t>prochaine seance</t>
+  </si>
+  <si>
+    <t>proch s</t>
+  </si>
+  <si>
+    <t>prochain seance</t>
+  </si>
+  <si>
+    <t>14.5</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>prochai*</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>prochaine sean ce</t>
+  </si>
+  <si>
+    <t>Prochaine seance</t>
+  </si>
+  <si>
+    <t>proh seancxe</t>
+  </si>
+  <si>
+    <t>KEZ</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>maladie</t>
+  </si>
+  <si>
+    <t>15.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1153,8 +1449,34 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1178,8 +1500,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1300,12 +1628,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1412,13 +1753,62 @@
     <xf numFmtId="14" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1431,6 +1821,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1479,7 +1872,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1511,9 +1904,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1545,6 +1939,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1720,58 +2115,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.54296875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.54296875" style="20" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1796875" style="20" customWidth="1"/>
+    <col min="14" max="14" width="5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="35.6328125" style="20" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.81640625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="4.54296875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.1796875" style="20" customWidth="1"/>
+    <col min="22" max="22" width="5" style="1" customWidth="1"/>
+    <col min="23" max="23" width="35.6328125" style="20" customWidth="1"/>
+    <col min="25" max="25" width="9.1796875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.81640625" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="8"/>
       <c r="F2" s="8"/>
       <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="K2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="Y2" s="8"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="F3" s="37">
+      <c r="F3" s="39">
         <v>42670</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39">
         <v>42677</v>
       </c>
-      <c r="I3" s="37"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="39"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="39">
+        <v>42691</v>
+      </c>
+      <c r="L3" s="39"/>
+      <c r="N3" s="39">
+        <v>42698</v>
+      </c>
+      <c r="O3" s="39"/>
+      <c r="Q3" s="39">
+        <v>42705</v>
+      </c>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39">
+        <v>42691</v>
+      </c>
+      <c r="T3" s="39"/>
+      <c r="V3" s="39">
+        <v>42698</v>
+      </c>
+      <c r="W3" s="39"/>
+      <c r="Y3" s="39">
+        <v>42705</v>
+      </c>
+      <c r="Z3" s="39"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="29"/>
       <c r="B4" s="30" t="s">
         <v>0</v>
@@ -1797,8 +2235,51 @@
       <c r="I4" s="33" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="33"/>
+      <c r="K4" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="M4" t="s">
+        <v>324</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q4" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="R4" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="S4" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="T4" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="U4" t="s">
+        <v>324</v>
+      </c>
+      <c r="V4" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="W4" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y4" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z4" s="33" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1815,15 +2296,28 @@
         <v>1</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="25">
-        <v>50</v>
-      </c>
+      <c r="G5" s="25"/>
       <c r="H5" s="24"/>
-      <c r="I5" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="25"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="25">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="25"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="25">
+        <v>14</v>
+      </c>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="25"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1840,15 +2334,28 @@
         <v>1</v>
       </c>
       <c r="F6" s="24"/>
-      <c r="G6" s="25">
-        <v>50</v>
-      </c>
+      <c r="G6" s="25"/>
       <c r="H6" s="24"/>
-      <c r="I6" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="25"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="25">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="25"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="25">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="25"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1865,15 +2372,28 @@
         <v>1</v>
       </c>
       <c r="F7" s="24"/>
-      <c r="G7" s="25">
-        <v>50</v>
-      </c>
+      <c r="G7" s="25"/>
       <c r="H7" s="24"/>
-      <c r="I7" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="25">
+        <v>11</v>
+      </c>
+      <c r="N7" s="43"/>
+      <c r="O7" s="25"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="25">
+        <v>11</v>
+      </c>
+      <c r="V7" s="43"/>
+      <c r="W7" s="25"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="25"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1890,15 +2410,28 @@
         <v>1</v>
       </c>
       <c r="F8" s="24"/>
-      <c r="G8" s="25">
-        <v>50</v>
-      </c>
+      <c r="G8" s="25"/>
       <c r="H8" s="24"/>
-      <c r="I8" s="25">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="25">
+        <v>13</v>
+      </c>
+      <c r="N8" s="43"/>
+      <c r="O8" s="25"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="25">
+        <v>13</v>
+      </c>
+      <c r="V8" s="43"/>
+      <c r="W8" s="25"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="25"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1915,15 +2448,28 @@
         <v>1</v>
       </c>
       <c r="F9" s="24"/>
-      <c r="G9" s="25">
-        <v>50</v>
-      </c>
+      <c r="G9" s="25"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="25">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="25">
+        <v>14</v>
+      </c>
+      <c r="N9" s="43"/>
+      <c r="O9" s="25"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="25">
+        <v>14</v>
+      </c>
+      <c r="V9" s="43"/>
+      <c r="W9" s="25"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="25"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1944,11 +2490,26 @@
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="24"/>
-      <c r="I10" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="25">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="25"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="25">
+        <v>12</v>
+      </c>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="25"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1965,15 +2526,28 @@
         <v>1</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="25">
-        <v>50</v>
-      </c>
+      <c r="G11" s="25"/>
       <c r="H11" s="24"/>
-      <c r="I11" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="25">
+        <v>13</v>
+      </c>
+      <c r="N11" s="43"/>
+      <c r="O11" s="25"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="25">
+        <v>13</v>
+      </c>
+      <c r="V11" s="43"/>
+      <c r="W11" s="25"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="25"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1990,15 +2564,28 @@
         <v>1</v>
       </c>
       <c r="F12" s="24"/>
-      <c r="G12" s="25">
-        <v>50</v>
-      </c>
+      <c r="G12" s="25"/>
       <c r="H12" s="24"/>
-      <c r="I12" s="25">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="25">
+        <v>12</v>
+      </c>
+      <c r="N12" s="43"/>
+      <c r="O12" s="25"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="25">
+        <v>12</v>
+      </c>
+      <c r="V12" s="43"/>
+      <c r="W12" s="25"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="25"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -2015,15 +2602,28 @@
         <v>1</v>
       </c>
       <c r="F13" s="24"/>
-      <c r="G13" s="25">
-        <v>50</v>
-      </c>
+      <c r="G13" s="25"/>
       <c r="H13" s="24"/>
-      <c r="I13" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="25">
+        <v>12</v>
+      </c>
+      <c r="N13" s="43"/>
+      <c r="O13" s="25"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="25">
+        <v>12</v>
+      </c>
+      <c r="V13" s="43"/>
+      <c r="W13" s="25"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="25"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -2044,11 +2644,26 @@
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="24"/>
-      <c r="I14" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="25">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="25"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="25">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="25"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -2065,15 +2680,24 @@
         <v>1</v>
       </c>
       <c r="F15" s="24"/>
-      <c r="G15" s="25">
-        <v>50</v>
-      </c>
+      <c r="G15" s="25"/>
       <c r="H15" s="24"/>
-      <c r="I15" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="25"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="25"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="25"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="25"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="25"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -2090,15 +2714,28 @@
         <v>1</v>
       </c>
       <c r="F16" s="24"/>
-      <c r="G16" s="25">
-        <v>50</v>
-      </c>
+      <c r="G16" s="25"/>
       <c r="H16" s="24"/>
-      <c r="I16" s="25">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="25">
+        <v>16</v>
+      </c>
+      <c r="N16" s="43"/>
+      <c r="O16" s="25"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="25">
+        <v>16</v>
+      </c>
+      <c r="V16" s="43"/>
+      <c r="W16" s="25"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="25"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -2119,11 +2756,26 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="24"/>
-      <c r="I17" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="25">
+        <v>12</v>
+      </c>
+      <c r="N17" s="43"/>
+      <c r="O17" s="25"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="25">
+        <v>12</v>
+      </c>
+      <c r="V17" s="43"/>
+      <c r="W17" s="25"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="25"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -2147,8 +2799,29 @@
         <v>315</v>
       </c>
       <c r="I18" s="25"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="25"/>
+      <c r="K18" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="L18" s="25"/>
+      <c r="N18" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="O18" s="25"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="T18" s="25"/>
+      <c r="V18" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="W18" s="25"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="25"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -2172,8 +2845,25 @@
       <c r="I19" s="25" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="25"/>
+      <c r="K19" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="L19" s="25"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="25"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="T19" s="25"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="25"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="25"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -2190,15 +2880,28 @@
         <v>1</v>
       </c>
       <c r="F20" s="24"/>
-      <c r="G20" s="25">
-        <v>50</v>
-      </c>
+      <c r="G20" s="25"/>
       <c r="H20" s="24"/>
-      <c r="I20" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="N20" s="43"/>
+      <c r="O20" s="25"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="V20" s="43"/>
+      <c r="W20" s="25"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="25"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -2215,15 +2918,28 @@
         <v>1</v>
       </c>
       <c r="F21" s="24"/>
-      <c r="G21" s="25">
-        <v>50</v>
-      </c>
+      <c r="G21" s="25"/>
       <c r="H21" s="24"/>
-      <c r="I21" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="25">
+        <v>13</v>
+      </c>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="25"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="25">
+        <v>13</v>
+      </c>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="25"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -2247,8 +2963,25 @@
         <v>315</v>
       </c>
       <c r="I22" s="25"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="25"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="25">
+        <v>12</v>
+      </c>
+      <c r="N22" s="43"/>
+      <c r="O22" s="25"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="25">
+        <v>12</v>
+      </c>
+      <c r="V22" s="43"/>
+      <c r="W22" s="25"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="25"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2265,15 +2998,28 @@
         <v>1</v>
       </c>
       <c r="F23" s="24"/>
-      <c r="G23" s="25">
-        <v>50</v>
-      </c>
+      <c r="G23" s="25"/>
       <c r="H23" s="24"/>
-      <c r="I23" s="25">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="25"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="25">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="25"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="25">
+        <v>15</v>
+      </c>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="25"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2297,8 +3043,29 @@
         <v>315</v>
       </c>
       <c r="I24" s="25"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="25"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="25">
+        <v>10</v>
+      </c>
+      <c r="N24" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="O24" s="25"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="25">
+        <v>10</v>
+      </c>
+      <c r="V24" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="W24" s="25"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="25"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2315,15 +3082,32 @@
         <v>1</v>
       </c>
       <c r="F25" s="24"/>
-      <c r="G25" s="25">
-        <v>70</v>
-      </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="25">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="G25" s="25"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="L25" s="25"/>
+      <c r="N25" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="O25" s="25"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="T25" s="25"/>
+      <c r="V25" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="W25" s="25"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="25"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2344,11 +3128,26 @@
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="24"/>
-      <c r="I26" s="25">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="N26" s="43"/>
+      <c r="O26" s="25"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V26" s="43"/>
+      <c r="W26" s="25"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="25"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2365,15 +3164,28 @@
         <v>1</v>
       </c>
       <c r="F27" s="24"/>
-      <c r="G27" s="25">
-        <v>50</v>
-      </c>
+      <c r="G27" s="25"/>
       <c r="H27" s="24"/>
-      <c r="I27" s="25">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="25"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="25">
+        <v>12</v>
+      </c>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="25"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="25">
+        <v>12</v>
+      </c>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="25"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2397,8 +3209,33 @@
         <v>315</v>
       </c>
       <c r="I28" s="25"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="25"/>
+      <c r="K28" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="L28" s="46"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="O28" s="46"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="T28" s="46"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="W28" s="46"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="46"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2419,11 +3256,30 @@
       </c>
       <c r="G29" s="25"/>
       <c r="H29" s="24"/>
-      <c r="I29" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="L29" s="25"/>
+      <c r="N29" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="O29" s="25"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="T29" s="25"/>
+      <c r="V29" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="W29" s="25"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="25"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2440,15 +3296,28 @@
         <v>1</v>
       </c>
       <c r="F30" s="24"/>
-      <c r="G30" s="27">
-        <v>0</v>
-      </c>
+      <c r="G30" s="27"/>
       <c r="H30" s="24"/>
-      <c r="I30" s="27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="25">
+        <v>12</v>
+      </c>
+      <c r="N30" s="43"/>
+      <c r="O30" s="25"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="25">
+        <v>12</v>
+      </c>
+      <c r="V30" s="43"/>
+      <c r="W30" s="25"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="25"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2472,8 +3341,25 @@
         <v>315</v>
       </c>
       <c r="I31" s="25"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="25"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="25"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="25">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="25"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="25">
+        <v>13</v>
+      </c>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="25"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2490,15 +3376,28 @@
         <v>1</v>
       </c>
       <c r="F32" s="24"/>
-      <c r="G32" s="25">
-        <v>50</v>
-      </c>
+      <c r="G32" s="25"/>
       <c r="H32" s="24"/>
-      <c r="I32" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="25">
+        <v>12</v>
+      </c>
+      <c r="N32" s="43"/>
+      <c r="O32" s="25"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="25">
+        <v>12</v>
+      </c>
+      <c r="V32" s="43"/>
+      <c r="W32" s="25"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="25"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2515,15 +3414,32 @@
         <v>1</v>
       </c>
       <c r="F33" s="24"/>
-      <c r="G33" s="25">
-        <v>50</v>
-      </c>
+      <c r="G33" s="25"/>
       <c r="H33" s="24"/>
-      <c r="I33" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="N33" s="43"/>
+      <c r="O33" s="25">
+        <v>12</v>
+      </c>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="V33" s="43"/>
+      <c r="W33" s="25">
+        <v>12</v>
+      </c>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="25"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2540,15 +3456,28 @@
         <v>1</v>
       </c>
       <c r="F34" s="24"/>
-      <c r="G34" s="25">
-        <v>50</v>
-      </c>
+      <c r="G34" s="25"/>
       <c r="H34" s="24"/>
-      <c r="I34" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="25">
+        <v>13</v>
+      </c>
+      <c r="N34" s="43"/>
+      <c r="O34" s="25"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="25">
+        <v>13</v>
+      </c>
+      <c r="V34" s="43"/>
+      <c r="W34" s="25"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="25"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2569,11 +3498,26 @@
       </c>
       <c r="G35" s="25"/>
       <c r="H35" s="24"/>
-      <c r="I35" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="25">
+        <v>10</v>
+      </c>
+      <c r="N35" s="43"/>
+      <c r="O35" s="25"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="25">
+        <v>10</v>
+      </c>
+      <c r="V35" s="43"/>
+      <c r="W35" s="25"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="25"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2590,15 +3534,28 @@
         <v>1</v>
       </c>
       <c r="F36" s="24"/>
-      <c r="G36" s="25">
-        <v>50</v>
-      </c>
+      <c r="G36" s="25"/>
       <c r="H36" s="24"/>
-      <c r="I36" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="25">
+        <v>14</v>
+      </c>
+      <c r="N36" s="43"/>
+      <c r="O36" s="25"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="25">
+        <v>14</v>
+      </c>
+      <c r="V36" s="43"/>
+      <c r="W36" s="25"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="25"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -2615,15 +3572,24 @@
         <v>1</v>
       </c>
       <c r="F37" s="24"/>
-      <c r="G37" s="27">
-        <v>90</v>
-      </c>
+      <c r="G37" s="27"/>
       <c r="H37" s="24"/>
-      <c r="I37" s="27">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="25"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="25"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="25"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="25"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="25"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -2640,15 +3606,28 @@
         <v>1</v>
       </c>
       <c r="F38" s="24"/>
-      <c r="G38" s="27">
-        <v>70</v>
-      </c>
+      <c r="G38" s="27"/>
       <c r="H38" s="24"/>
-      <c r="I38" s="27">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="25"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="25">
+        <v>12</v>
+      </c>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="25"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="25">
+        <v>12</v>
+      </c>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="25"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -2665,15 +3644,32 @@
         <v>1</v>
       </c>
       <c r="F39" s="24"/>
-      <c r="G39" s="25">
-        <v>50</v>
-      </c>
+      <c r="G39" s="25"/>
       <c r="H39" s="24"/>
-      <c r="I39" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="L39" s="25"/>
+      <c r="N39" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="O39" s="25"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="T39" s="25"/>
+      <c r="V39" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="W39" s="25"/>
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="25"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="19">
         <v>36</v>
       </c>
@@ -2690,17 +3686,34 @@
         <v>1</v>
       </c>
       <c r="F40" s="24"/>
-      <c r="G40" s="25">
-        <v>50</v>
-      </c>
+      <c r="G40" s="25"/>
       <c r="H40" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="I40" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="L40" s="25"/>
+      <c r="N40" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="O40" s="25"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="T40" s="25"/>
+      <c r="V40" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="W40" s="25"/>
+      <c r="Y40" s="43"/>
+      <c r="Z40" s="25"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -2717,17 +3730,30 @@
         <v>1</v>
       </c>
       <c r="F41" s="28"/>
-      <c r="G41" s="36">
-        <v>50</v>
-      </c>
+      <c r="G41" s="36"/>
       <c r="H41" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="I41" s="36">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="I41" s="36"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="L41" s="25"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="25"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="T41" s="25"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="25"/>
+      <c r="Y41" s="43"/>
+      <c r="Z41" s="25"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16" t="s">
@@ -2741,8 +3767,25 @@
       <c r="G42" s="21"/>
       <c r="H42" s="5"/>
       <c r="I42" s="21"/>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" s="21"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="N42" s="43"/>
+      <c r="O42" s="25"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="V42" s="43"/>
+      <c r="W42" s="25"/>
+      <c r="Y42" s="43"/>
+      <c r="Z42" s="25"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -2752,49 +3795,133 @@
       <c r="G43" s="21"/>
       <c r="H43" s="5"/>
       <c r="I43" s="21"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="39" t="s">
+      <c r="J43" s="21"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="N43" s="43"/>
+      <c r="O43" s="25"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="49"/>
+      <c r="T43" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="V43" s="43"/>
+      <c r="W43" s="25"/>
+      <c r="Y43" s="43"/>
+      <c r="Z43" s="25"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A44" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
       <c r="D44" s="11"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="21"/>
       <c r="H44" s="5"/>
       <c r="I44" s="21"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="38" t="s">
+      <c r="J44" s="21"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="25">
+        <v>10</v>
+      </c>
+      <c r="N44" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="O44" s="25">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="50"/>
+      <c r="T44" s="25">
+        <v>10</v>
+      </c>
+      <c r="V44" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="W44" s="25">
+        <v>10</v>
+      </c>
+      <c r="Y44" s="50"/>
+      <c r="Z44" s="25"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A45" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
       <c r="D45" s="11"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="21"/>
       <c r="H45" s="5"/>
       <c r="I45" s="21"/>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" s="21"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="25">
+        <v>12</v>
+      </c>
+      <c r="N45" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="O45" s="25">
+        <v>12</v>
+      </c>
+      <c r="Q45" s="50"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="50"/>
+      <c r="T45" s="25">
+        <v>12</v>
+      </c>
+      <c r="V45" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="W45" s="25">
+        <v>12</v>
+      </c>
+      <c r="Y45" s="50"/>
+      <c r="Z45" s="25"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="12"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="11"/>
       <c r="E46" s="5"/>
-      <c r="F46" s="37">
+      <c r="F46" s="39">
         <v>42670</v>
       </c>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37">
+      <c r="G46" s="39"/>
+      <c r="H46" s="39">
         <v>42677</v>
       </c>
-      <c r="I46" s="37"/>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="I46" s="39"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="25"/>
+      <c r="N46" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="O46" s="25"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="51"/>
+      <c r="T46" s="25"/>
+      <c r="V46" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="W46" s="25"/>
+      <c r="Y46" s="50"/>
+      <c r="Z46" s="25"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="29"/>
       <c r="B47" s="30" t="s">
         <v>0</v>
@@ -2820,8 +3947,21 @@
       <c r="I47" s="33" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" s="56"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="21"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="21"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="21"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="21"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="21"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <v>1</v>
       </c>
@@ -2845,8 +3985,21 @@
         <v>315</v>
       </c>
       <c r="I48" s="25"/>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" s="21"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="21"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="21"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="21"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="21"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="21"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>2</v>
       </c>
@@ -2867,11 +4020,30 @@
       </c>
       <c r="G49" s="25"/>
       <c r="H49" s="26"/>
-      <c r="I49" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="39">
+        <v>42670</v>
+      </c>
+      <c r="L49" s="39"/>
+      <c r="N49" s="39">
+        <v>42670</v>
+      </c>
+      <c r="O49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39">
+        <v>42670</v>
+      </c>
+      <c r="T49" s="39"/>
+      <c r="V49" s="39">
+        <v>42670</v>
+      </c>
+      <c r="W49" s="39"/>
+      <c r="Y49" s="39"/>
+      <c r="Z49" s="39"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <v>3</v>
       </c>
@@ -2888,15 +4060,40 @@
         <v>2</v>
       </c>
       <c r="F50" s="24"/>
-      <c r="G50" s="25">
-        <v>50</v>
-      </c>
+      <c r="G50" s="25"/>
       <c r="H50" s="26"/>
-      <c r="I50" s="25">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="L50" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="N50" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="O50" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="T50" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="V50" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="W50" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y50" s="32"/>
+      <c r="Z50" s="33"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>4</v>
       </c>
@@ -2913,15 +4110,32 @@
         <v>2</v>
       </c>
       <c r="F51" s="24"/>
-      <c r="G51" s="25">
-        <v>50</v>
-      </c>
+      <c r="G51" s="25"/>
       <c r="H51" s="26"/>
-      <c r="I51" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="N51" s="26"/>
+      <c r="O51" s="25">
+        <v>12</v>
+      </c>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="50"/>
+      <c r="T51" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="V51" s="26"/>
+      <c r="W51" s="25">
+        <v>12</v>
+      </c>
+      <c r="Y51" s="26"/>
+      <c r="Z51" s="25"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <v>5</v>
       </c>
@@ -2938,15 +4152,32 @@
         <v>2</v>
       </c>
       <c r="F52" s="24"/>
-      <c r="G52" s="25">
-        <v>50</v>
-      </c>
+      <c r="G52" s="25"/>
       <c r="H52" s="26"/>
-      <c r="I52" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="25">
+        <v>13</v>
+      </c>
+      <c r="N52" s="26"/>
+      <c r="O52" s="25">
+        <v>13</v>
+      </c>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="51"/>
+      <c r="T52" s="25">
+        <v>13</v>
+      </c>
+      <c r="V52" s="26"/>
+      <c r="W52" s="25">
+        <v>13</v>
+      </c>
+      <c r="Y52" s="26"/>
+      <c r="Z52" s="25"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>6</v>
       </c>
@@ -2963,15 +4194,32 @@
         <v>2</v>
       </c>
       <c r="F53" s="24"/>
-      <c r="G53" s="25">
-        <v>50</v>
-      </c>
+      <c r="G53" s="25"/>
       <c r="H53" s="26"/>
-      <c r="I53" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="25">
+        <v>12</v>
+      </c>
+      <c r="N53" s="26"/>
+      <c r="O53" s="25">
+        <v>12</v>
+      </c>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="42"/>
+      <c r="T53" s="25">
+        <v>12</v>
+      </c>
+      <c r="V53" s="26"/>
+      <c r="W53" s="25">
+        <v>12</v>
+      </c>
+      <c r="Y53" s="26"/>
+      <c r="Z53" s="25"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
         <v>7</v>
       </c>
@@ -2988,15 +4236,32 @@
         <v>2</v>
       </c>
       <c r="F54" s="24"/>
-      <c r="G54" s="25">
-        <v>50</v>
-      </c>
+      <c r="G54" s="25"/>
       <c r="H54" s="26"/>
-      <c r="I54" s="25">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="25">
+        <v>11</v>
+      </c>
+      <c r="N54" s="26"/>
+      <c r="O54" s="25">
+        <v>11</v>
+      </c>
+      <c r="Q54" s="26"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="25">
+        <v>11</v>
+      </c>
+      <c r="V54" s="26"/>
+      <c r="W54" s="25">
+        <v>11</v>
+      </c>
+      <c r="Y54" s="26"/>
+      <c r="Z54" s="25"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>8</v>
       </c>
@@ -3020,8 +4285,29 @@
         <v>315</v>
       </c>
       <c r="I55" s="25"/>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" s="25"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="N55" s="26"/>
+      <c r="O55" s="25">
+        <v>11</v>
+      </c>
+      <c r="Q55" s="26"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="42"/>
+      <c r="T55" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V55" s="26"/>
+      <c r="W55" s="25">
+        <v>11</v>
+      </c>
+      <c r="Y55" s="26"/>
+      <c r="Z55" s="25"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <v>9</v>
       </c>
@@ -3038,15 +4324,28 @@
         <v>2</v>
       </c>
       <c r="F56" s="24"/>
-      <c r="G56" s="25">
-        <v>50</v>
-      </c>
+      <c r="G56" s="25"/>
       <c r="H56" s="26"/>
-      <c r="I56" s="25">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="25"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="25">
+        <v>14</v>
+      </c>
+      <c r="Q56" s="26"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="24"/>
+      <c r="T56" s="25"/>
+      <c r="V56" s="26"/>
+      <c r="W56" s="25">
+        <v>14</v>
+      </c>
+      <c r="Y56" s="26"/>
+      <c r="Z56" s="25"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>10</v>
       </c>
@@ -3070,8 +4369,29 @@
         <v>315</v>
       </c>
       <c r="I57" s="25"/>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" s="25"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="25">
+        <v>15</v>
+      </c>
+      <c r="N57" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="O57" s="25"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="42"/>
+      <c r="T57" s="25">
+        <v>15</v>
+      </c>
+      <c r="V57" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="W57" s="25"/>
+      <c r="Y57" s="26"/>
+      <c r="Z57" s="25"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <v>11</v>
       </c>
@@ -3095,8 +4415,25 @@
         <v>315</v>
       </c>
       <c r="I58" s="25"/>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" s="25"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="N58" s="26"/>
+      <c r="O58" s="25"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="50"/>
+      <c r="T58" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="V58" s="26"/>
+      <c r="W58" s="25"/>
+      <c r="Y58" s="26"/>
+      <c r="Z58" s="25"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>12</v>
       </c>
@@ -3113,15 +4450,32 @@
         <v>2</v>
       </c>
       <c r="F59" s="24"/>
-      <c r="G59" s="25">
-        <v>50</v>
-      </c>
+      <c r="G59" s="25"/>
       <c r="H59" s="26"/>
-      <c r="I59" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="N59" s="26"/>
+      <c r="O59" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="42"/>
+      <c r="T59" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="V59" s="26"/>
+      <c r="W59" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y59" s="26"/>
+      <c r="Z59" s="25"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
         <v>13</v>
       </c>
@@ -3138,15 +4492,32 @@
         <v>2</v>
       </c>
       <c r="F60" s="24"/>
-      <c r="G60" s="25">
-        <v>50</v>
-      </c>
+      <c r="G60" s="25"/>
       <c r="H60" s="26"/>
-      <c r="I60" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="25">
+        <v>10</v>
+      </c>
+      <c r="N60" s="26"/>
+      <c r="O60" s="25">
+        <v>10</v>
+      </c>
+      <c r="Q60" s="26"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="50"/>
+      <c r="T60" s="25">
+        <v>10</v>
+      </c>
+      <c r="V60" s="26"/>
+      <c r="W60" s="25">
+        <v>10</v>
+      </c>
+      <c r="Y60" s="26"/>
+      <c r="Z60" s="25"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>14</v>
       </c>
@@ -3163,15 +4534,32 @@
         <v>2</v>
       </c>
       <c r="F61" s="24"/>
-      <c r="G61" s="25">
-        <v>50</v>
-      </c>
+      <c r="G61" s="25"/>
       <c r="H61" s="26"/>
-      <c r="I61" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="N61" s="26"/>
+      <c r="O61" s="25">
+        <v>13</v>
+      </c>
+      <c r="Q61" s="26"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="50"/>
+      <c r="T61" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="V61" s="26"/>
+      <c r="W61" s="25">
+        <v>13</v>
+      </c>
+      <c r="Y61" s="26"/>
+      <c r="Z61" s="25"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
         <v>15</v>
       </c>
@@ -3188,15 +4576,32 @@
         <v>2</v>
       </c>
       <c r="F62" s="24"/>
-      <c r="G62" s="27">
-        <v>0</v>
-      </c>
+      <c r="G62" s="27"/>
       <c r="H62" s="26"/>
-      <c r="I62" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="N62" s="26"/>
+      <c r="O62" s="25">
+        <v>12</v>
+      </c>
+      <c r="Q62" s="26"/>
+      <c r="R62" s="25"/>
+      <c r="S62" s="42"/>
+      <c r="T62" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V62" s="26"/>
+      <c r="W62" s="25">
+        <v>12</v>
+      </c>
+      <c r="Y62" s="26"/>
+      <c r="Z62" s="25"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>16</v>
       </c>
@@ -3213,15 +4618,32 @@
         <v>2</v>
       </c>
       <c r="F63" s="24"/>
-      <c r="G63" s="25">
-        <v>50</v>
-      </c>
+      <c r="G63" s="25"/>
       <c r="H63" s="26"/>
-      <c r="I63" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="N63" s="26"/>
+      <c r="O63" s="25">
+        <v>16</v>
+      </c>
+      <c r="Q63" s="26"/>
+      <c r="R63" s="25"/>
+      <c r="S63" s="42"/>
+      <c r="T63" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V63" s="26"/>
+      <c r="W63" s="25">
+        <v>16</v>
+      </c>
+      <c r="Y63" s="26"/>
+      <c r="Z63" s="25"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
         <v>17</v>
       </c>
@@ -3238,15 +4660,32 @@
         <v>2</v>
       </c>
       <c r="F64" s="24"/>
-      <c r="G64" s="25">
-        <v>50</v>
-      </c>
+      <c r="G64" s="25"/>
       <c r="H64" s="26"/>
-      <c r="I64" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="N64" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="O64" s="25"/>
+      <c r="Q64" s="26"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="42"/>
+      <c r="T64" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V64" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="W64" s="25"/>
+      <c r="Y64" s="26"/>
+      <c r="Z64" s="25"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>18</v>
       </c>
@@ -3263,15 +4702,32 @@
         <v>2</v>
       </c>
       <c r="F65" s="24"/>
-      <c r="G65" s="25">
-        <v>50</v>
-      </c>
+      <c r="G65" s="25"/>
       <c r="H65" s="26"/>
-      <c r="I65" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="N65" s="26"/>
+      <c r="O65" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q65" s="26"/>
+      <c r="R65" s="27"/>
+      <c r="S65" s="42"/>
+      <c r="T65" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="V65" s="26"/>
+      <c r="W65" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y65" s="26"/>
+      <c r="Z65" s="27"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>19</v>
       </c>
@@ -3288,15 +4744,32 @@
         <v>2</v>
       </c>
       <c r="F66" s="24"/>
-      <c r="G66" s="25">
-        <v>50</v>
-      </c>
+      <c r="G66" s="25"/>
       <c r="H66" s="26"/>
-      <c r="I66" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="N66" s="26"/>
+      <c r="O66" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q66" s="26"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="42"/>
+      <c r="T66" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V66" s="26"/>
+      <c r="W66" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y66" s="26"/>
+      <c r="Z66" s="25"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>20</v>
       </c>
@@ -3313,15 +4786,36 @@
         <v>2</v>
       </c>
       <c r="F67" s="24"/>
-      <c r="G67" s="25">
+      <c r="G67" s="25"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="L67" s="25">
         <v>50</v>
       </c>
-      <c r="H67" s="26"/>
-      <c r="I67" s="25">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="N67" s="26"/>
+      <c r="O67" s="25">
+        <v>50</v>
+      </c>
+      <c r="Q67" s="26"/>
+      <c r="R67" s="25"/>
+      <c r="S67" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="T67" s="25">
+        <v>50</v>
+      </c>
+      <c r="V67" s="26"/>
+      <c r="W67" s="25">
+        <v>50</v>
+      </c>
+      <c r="Y67" s="26"/>
+      <c r="Z67" s="25"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>21</v>
       </c>
@@ -3345,8 +4839,29 @@
         <v>315</v>
       </c>
       <c r="I68" s="25"/>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" s="25"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="N68" s="26"/>
+      <c r="O68" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q68" s="26"/>
+      <c r="R68" s="25"/>
+      <c r="S68" s="42"/>
+      <c r="T68" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V68" s="26"/>
+      <c r="W68" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y68" s="26"/>
+      <c r="Z68" s="25"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>22</v>
       </c>
@@ -3363,15 +4878,32 @@
         <v>2</v>
       </c>
       <c r="F69" s="24"/>
-      <c r="G69" s="27">
-        <v>80</v>
-      </c>
+      <c r="G69" s="27"/>
       <c r="H69" s="26"/>
-      <c r="I69" s="27">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="N69" s="26"/>
+      <c r="O69" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q69" s="26"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="42"/>
+      <c r="T69" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V69" s="26"/>
+      <c r="W69" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y69" s="26"/>
+      <c r="Z69" s="25"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>23</v>
       </c>
@@ -3395,8 +4927,29 @@
         <v>315</v>
       </c>
       <c r="I70" s="25"/>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70" s="25"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="25">
+        <v>14</v>
+      </c>
+      <c r="N70" s="26"/>
+      <c r="O70" s="25">
+        <v>14</v>
+      </c>
+      <c r="Q70" s="26"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="44"/>
+      <c r="T70" s="25">
+        <v>14</v>
+      </c>
+      <c r="V70" s="26"/>
+      <c r="W70" s="25">
+        <v>14</v>
+      </c>
+      <c r="Y70" s="26"/>
+      <c r="Z70" s="25"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>24</v>
       </c>
@@ -3420,8 +4973,29 @@
         <v>315</v>
       </c>
       <c r="I71" s="25"/>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71" s="25"/>
+      <c r="K71" s="50"/>
+      <c r="L71" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="N71" s="26"/>
+      <c r="O71" s="25">
+        <v>12</v>
+      </c>
+      <c r="Q71" s="26"/>
+      <c r="R71" s="25"/>
+      <c r="S71" s="50"/>
+      <c r="T71" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V71" s="26"/>
+      <c r="W71" s="25">
+        <v>12</v>
+      </c>
+      <c r="Y71" s="26"/>
+      <c r="Z71" s="25"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
         <v>25</v>
       </c>
@@ -3445,8 +5019,29 @@
         <v>315</v>
       </c>
       <c r="I72" s="25"/>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" s="25"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="27">
+        <v>16</v>
+      </c>
+      <c r="N72" s="26"/>
+      <c r="O72" s="27">
+        <v>16</v>
+      </c>
+      <c r="Q72" s="26"/>
+      <c r="R72" s="27"/>
+      <c r="S72" s="42"/>
+      <c r="T72" s="27">
+        <v>16</v>
+      </c>
+      <c r="V72" s="26"/>
+      <c r="W72" s="27">
+        <v>16</v>
+      </c>
+      <c r="Y72" s="26"/>
+      <c r="Z72" s="27"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>26</v>
       </c>
@@ -3470,8 +5065,17 @@
         <v>315</v>
       </c>
       <c r="I73" s="25"/>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="J73" s="25"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="25"/>
+      <c r="O73" s="25"/>
+      <c r="R73" s="25"/>
+      <c r="S73" s="26"/>
+      <c r="T73" s="25"/>
+      <c r="W73" s="25"/>
+      <c r="Z73" s="25"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <v>27</v>
       </c>
@@ -3488,15 +5092,28 @@
         <v>2</v>
       </c>
       <c r="F74" s="24"/>
-      <c r="G74" s="25">
-        <v>50</v>
-      </c>
+      <c r="G74" s="25"/>
       <c r="H74" s="26"/>
-      <c r="I74" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="50"/>
+      <c r="L74" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="O74" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="R74" s="25"/>
+      <c r="S74" s="50"/>
+      <c r="T74" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="W74" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z74" s="25"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>28</v>
       </c>
@@ -3513,15 +5130,28 @@
         <v>2</v>
       </c>
       <c r="F75" s="24"/>
-      <c r="G75" s="27">
-        <v>70</v>
-      </c>
+      <c r="G75" s="27"/>
       <c r="H75" s="26"/>
-      <c r="I75" s="27">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="25">
+        <v>14</v>
+      </c>
+      <c r="O75" s="25">
+        <v>14</v>
+      </c>
+      <c r="R75" s="25"/>
+      <c r="S75" s="50"/>
+      <c r="T75" s="25">
+        <v>14</v>
+      </c>
+      <c r="W75" s="25">
+        <v>14</v>
+      </c>
+      <c r="Z75" s="25"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>29</v>
       </c>
@@ -3542,11 +5172,26 @@
       </c>
       <c r="G76" s="25"/>
       <c r="H76" s="26"/>
-      <c r="I76" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="50"/>
+      <c r="L76" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="O76" s="25">
+        <v>13</v>
+      </c>
+      <c r="R76" s="25"/>
+      <c r="S76" s="50"/>
+      <c r="T76" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="W76" s="25">
+        <v>13</v>
+      </c>
+      <c r="Z76" s="25"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
         <v>30</v>
       </c>
@@ -3563,15 +5208,28 @@
         <v>2</v>
       </c>
       <c r="F77" s="24"/>
-      <c r="G77" s="27">
-        <v>90</v>
-      </c>
+      <c r="G77" s="27"/>
       <c r="H77" s="26"/>
-      <c r="I77" s="27">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="25">
+        <v>14</v>
+      </c>
+      <c r="O77" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="R77" s="25"/>
+      <c r="S77" s="42"/>
+      <c r="T77" s="25">
+        <v>14</v>
+      </c>
+      <c r="W77" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z77" s="25"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>31</v>
       </c>
@@ -3588,15 +5246,28 @@
         <v>2</v>
       </c>
       <c r="F78" s="24"/>
-      <c r="G78" s="25">
-        <v>50</v>
-      </c>
+      <c r="G78" s="25"/>
       <c r="H78" s="26"/>
-      <c r="I78" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="27">
+        <v>14</v>
+      </c>
+      <c r="O78" s="27">
+        <v>14</v>
+      </c>
+      <c r="R78" s="27"/>
+      <c r="S78" s="42"/>
+      <c r="T78" s="27">
+        <v>14</v>
+      </c>
+      <c r="W78" s="27">
+        <v>14</v>
+      </c>
+      <c r="Z78" s="27"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>32</v>
       </c>
@@ -3613,15 +5284,28 @@
         <v>2</v>
       </c>
       <c r="F79" s="24"/>
-      <c r="G79" s="25">
-        <v>50</v>
-      </c>
+      <c r="G79" s="25"/>
       <c r="H79" s="26"/>
-      <c r="I79" s="25">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="50"/>
+      <c r="L79" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="O79" s="25">
+        <v>13</v>
+      </c>
+      <c r="R79" s="25"/>
+      <c r="S79" s="50"/>
+      <c r="T79" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="W79" s="25">
+        <v>13</v>
+      </c>
+      <c r="Z79" s="25"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
         <v>33</v>
       </c>
@@ -3645,8 +5329,25 @@
         <v>315</v>
       </c>
       <c r="I80" s="25"/>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80" s="25"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="27">
+        <v>17</v>
+      </c>
+      <c r="O80" s="27">
+        <v>17</v>
+      </c>
+      <c r="R80" s="27"/>
+      <c r="S80" s="42"/>
+      <c r="T80" s="27">
+        <v>17</v>
+      </c>
+      <c r="W80" s="27">
+        <v>17</v>
+      </c>
+      <c r="Z80" s="27"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>34</v>
       </c>
@@ -3667,11 +5368,30 @@
       </c>
       <c r="G81" s="25"/>
       <c r="H81" s="26"/>
-      <c r="I81" s="25">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="L81" s="25">
+        <v>12</v>
+      </c>
+      <c r="O81" s="25">
+        <v>12</v>
+      </c>
+      <c r="R81" s="25"/>
+      <c r="S81" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="T81" s="25">
+        <v>12</v>
+      </c>
+      <c r="W81" s="25">
+        <v>12</v>
+      </c>
+      <c r="Z81" s="25"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
         <v>35</v>
       </c>
@@ -3695,8 +5415,25 @@
         <v>315</v>
       </c>
       <c r="I82" s="25"/>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82" s="25"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="O82" s="25">
+        <v>13</v>
+      </c>
+      <c r="R82" s="25"/>
+      <c r="S82" s="42"/>
+      <c r="T82" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="W82" s="25">
+        <v>13</v>
+      </c>
+      <c r="Z82" s="25"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>36</v>
       </c>
@@ -3720,8 +5457,25 @@
         <v>315</v>
       </c>
       <c r="I83" s="25"/>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83" s="25"/>
+      <c r="K83" s="50"/>
+      <c r="L83" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="O83" s="25">
+        <v>13</v>
+      </c>
+      <c r="R83" s="25"/>
+      <c r="S83" s="50"/>
+      <c r="T83" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="W83" s="25">
+        <v>13</v>
+      </c>
+      <c r="Z83" s="25"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="5"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -3731,8 +5485,25 @@
       <c r="G84" s="21"/>
       <c r="H84" s="5"/>
       <c r="I84" s="21"/>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="J84" s="21"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="25">
+        <v>14</v>
+      </c>
+      <c r="O84" s="25">
+        <v>14</v>
+      </c>
+      <c r="R84" s="25"/>
+      <c r="S84" s="51"/>
+      <c r="T84" s="25">
+        <v>14</v>
+      </c>
+      <c r="W84" s="25">
+        <v>14</v>
+      </c>
+      <c r="Z84" s="25"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="15"/>
       <c r="B85" s="9" t="s">
         <v>36</v>
@@ -3744,8 +5515,29 @@
       <c r="G85" s="35"/>
       <c r="H85" s="34"/>
       <c r="I85" s="35"/>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="J85" s="35"/>
+      <c r="K85" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="L85" s="25"/>
+      <c r="N85" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="O85" s="25"/>
+      <c r="Q85" s="26"/>
+      <c r="R85" s="25"/>
+      <c r="S85" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="T85" s="25"/>
+      <c r="V85" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="W85" s="25"/>
+      <c r="Y85" s="26"/>
+      <c r="Z85" s="25"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="15"/>
       <c r="B86" s="10" t="s">
         <v>223</v>
@@ -3753,16 +5545,37 @@
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
       <c r="E86" s="15"/>
-      <c r="F86" s="37">
+      <c r="F86" s="39">
         <v>42670</v>
       </c>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37">
+      <c r="G86" s="39"/>
+      <c r="H86" s="39">
         <v>42677</v>
       </c>
-      <c r="I86" s="37"/>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="I86" s="39"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="L86" s="27"/>
+      <c r="N86" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="O86" s="27"/>
+      <c r="Q86" s="24"/>
+      <c r="R86" s="27"/>
+      <c r="S86" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="T86" s="27"/>
+      <c r="V86" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="W86" s="27"/>
+      <c r="Y86" s="24"/>
+      <c r="Z86" s="27"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="29"/>
       <c r="B87" s="30" t="s">
         <v>0</v>
@@ -3788,8 +5601,21 @@
       <c r="I87" s="33" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87" s="56"/>
+      <c r="K87" s="52"/>
+      <c r="L87" s="21"/>
+      <c r="N87" s="52"/>
+      <c r="O87" s="21"/>
+      <c r="Q87" s="52"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="52"/>
+      <c r="T87" s="21"/>
+      <c r="V87" s="52"/>
+      <c r="W87" s="21"/>
+      <c r="Y87" s="52"/>
+      <c r="Z87" s="21"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="6">
         <v>1</v>
       </c>
@@ -3806,15 +5632,24 @@
         <v>1</v>
       </c>
       <c r="F88" s="26"/>
-      <c r="G88" s="25">
-        <v>50</v>
-      </c>
+      <c r="G88" s="25"/>
       <c r="H88" s="26"/>
-      <c r="I88" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="I88" s="25"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="49"/>
+      <c r="L88" s="21"/>
+      <c r="N88" s="49"/>
+      <c r="O88" s="21"/>
+      <c r="Q88" s="49"/>
+      <c r="R88" s="21"/>
+      <c r="S88" s="49"/>
+      <c r="T88" s="21"/>
+      <c r="V88" s="49"/>
+      <c r="W88" s="21"/>
+      <c r="Y88" s="49"/>
+      <c r="Z88" s="21"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>2</v>
       </c>
@@ -3835,11 +5670,26 @@
       </c>
       <c r="G89" s="25"/>
       <c r="H89" s="26"/>
-      <c r="I89" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="I89" s="25"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="49"/>
+      <c r="L89" s="21"/>
+      <c r="N89" s="43"/>
+      <c r="O89" s="25">
+        <v>14</v>
+      </c>
+      <c r="Q89" s="43"/>
+      <c r="R89" s="25"/>
+      <c r="S89" s="49"/>
+      <c r="T89" s="21"/>
+      <c r="V89" s="43"/>
+      <c r="W89" s="25">
+        <v>14</v>
+      </c>
+      <c r="Y89" s="43"/>
+      <c r="Z89" s="25"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" s="6">
         <v>3</v>
       </c>
@@ -3856,15 +5706,24 @@
         <v>3</v>
       </c>
       <c r="F90" s="24"/>
-      <c r="G90" s="27">
-        <v>80</v>
-      </c>
+      <c r="G90" s="27"/>
       <c r="H90" s="26"/>
-      <c r="I90" s="27">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="I90" s="27"/>
+      <c r="J90" s="57"/>
+      <c r="K90" s="34"/>
+      <c r="L90" s="35"/>
+      <c r="N90" s="34"/>
+      <c r="O90" s="35"/>
+      <c r="Q90" s="34"/>
+      <c r="R90" s="35"/>
+      <c r="S90" s="34"/>
+      <c r="T90" s="35"/>
+      <c r="V90" s="34"/>
+      <c r="W90" s="35"/>
+      <c r="Y90" s="34"/>
+      <c r="Z90" s="35"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>4</v>
       </c>
@@ -3888,8 +5747,29 @@
         <v>322</v>
       </c>
       <c r="I91" s="25"/>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91" s="25"/>
+      <c r="K91" s="39">
+        <v>42670</v>
+      </c>
+      <c r="L91" s="39"/>
+      <c r="N91" s="39">
+        <v>42670</v>
+      </c>
+      <c r="O91" s="39"/>
+      <c r="Q91" s="39"/>
+      <c r="R91" s="39"/>
+      <c r="S91" s="39">
+        <v>42670</v>
+      </c>
+      <c r="T91" s="39"/>
+      <c r="V91" s="39">
+        <v>42670</v>
+      </c>
+      <c r="W91" s="39"/>
+      <c r="Y91" s="39"/>
+      <c r="Z91" s="39"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="6">
         <v>5</v>
       </c>
@@ -3906,15 +5786,40 @@
         <v>1</v>
       </c>
       <c r="F92" s="26"/>
-      <c r="G92" s="25">
-        <v>50</v>
-      </c>
+      <c r="G92" s="25"/>
       <c r="H92" s="26"/>
-      <c r="I92" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="L92" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="N92" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="O92" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q92" s="32"/>
+      <c r="R92" s="33"/>
+      <c r="S92" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="T92" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="V92" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="W92" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y92" s="32"/>
+      <c r="Z92" s="33"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>6</v>
       </c>
@@ -3935,11 +5840,22 @@
       </c>
       <c r="G93" s="25"/>
       <c r="H93" s="26"/>
-      <c r="I93" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="25"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="25"/>
+      <c r="Q93" s="26"/>
+      <c r="R93" s="25"/>
+      <c r="S93" s="26"/>
+      <c r="T93" s="25"/>
+      <c r="V93" s="26"/>
+      <c r="W93" s="25"/>
+      <c r="Y93" s="26"/>
+      <c r="Z93" s="25"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="6">
         <v>7</v>
       </c>
@@ -3956,15 +5872,36 @@
         <v>3</v>
       </c>
       <c r="F94" s="24"/>
-      <c r="G94" s="25">
-        <v>50</v>
-      </c>
+      <c r="G94" s="25"/>
       <c r="H94" s="26"/>
-      <c r="I94" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="I94" s="25"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="42"/>
+      <c r="L94" s="27">
+        <v>13</v>
+      </c>
+      <c r="N94" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="O94" s="27">
+        <v>13</v>
+      </c>
+      <c r="Q94" s="42"/>
+      <c r="R94" s="27"/>
+      <c r="S94" s="42"/>
+      <c r="T94" s="27">
+        <v>13</v>
+      </c>
+      <c r="V94" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="W94" s="27">
+        <v>13</v>
+      </c>
+      <c r="Y94" s="42"/>
+      <c r="Z94" s="27"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>8</v>
       </c>
@@ -3985,11 +5922,30 @@
       </c>
       <c r="G95" s="25"/>
       <c r="H95" s="26"/>
-      <c r="I95" s="25">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
+      <c r="K95" s="50"/>
+      <c r="L95" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="N95" s="50"/>
+      <c r="O95" s="25">
+        <v>12</v>
+      </c>
+      <c r="Q95" s="50"/>
+      <c r="R95" s="25"/>
+      <c r="S95" s="50"/>
+      <c r="T95" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V95" s="50"/>
+      <c r="W95" s="25">
+        <v>12</v>
+      </c>
+      <c r="Y95" s="50"/>
+      <c r="Z95" s="25"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" s="6">
         <v>9</v>
       </c>
@@ -4006,15 +5962,28 @@
         <v>3</v>
       </c>
       <c r="F96" s="24"/>
-      <c r="G96" s="27">
-        <v>80</v>
-      </c>
+      <c r="G96" s="27"/>
       <c r="H96" s="26"/>
-      <c r="I96" s="27">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="I96" s="27"/>
+      <c r="J96" s="27"/>
+      <c r="K96" s="50"/>
+      <c r="L96" s="50">
+        <v>13</v>
+      </c>
+      <c r="N96" s="50"/>
+      <c r="O96" s="50"/>
+      <c r="Q96" s="50"/>
+      <c r="R96" s="50"/>
+      <c r="S96" s="50"/>
+      <c r="T96" s="50">
+        <v>13</v>
+      </c>
+      <c r="V96" s="50"/>
+      <c r="W96" s="50"/>
+      <c r="Y96" s="50"/>
+      <c r="Z96" s="50"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>10</v>
       </c>
@@ -4035,11 +6004,30 @@
       </c>
       <c r="G97" s="25"/>
       <c r="H97" s="26"/>
-      <c r="I97" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="42"/>
+      <c r="L97" s="25">
+        <v>14</v>
+      </c>
+      <c r="N97" s="42"/>
+      <c r="O97" s="25">
+        <v>14</v>
+      </c>
+      <c r="Q97" s="42"/>
+      <c r="R97" s="25"/>
+      <c r="S97" s="42"/>
+      <c r="T97" s="25">
+        <v>14</v>
+      </c>
+      <c r="V97" s="42"/>
+      <c r="W97" s="25">
+        <v>14</v>
+      </c>
+      <c r="Y97" s="42"/>
+      <c r="Z97" s="25"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="6">
         <v>11</v>
       </c>
@@ -4060,11 +6048,34 @@
       </c>
       <c r="G98" s="25"/>
       <c r="H98" s="26"/>
-      <c r="I98" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
+      <c r="K98" s="50"/>
+      <c r="L98" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="N98" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="O98" s="25">
+        <v>11</v>
+      </c>
+      <c r="Q98" s="50"/>
+      <c r="R98" s="25"/>
+      <c r="S98" s="50"/>
+      <c r="T98" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V98" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="W98" s="25">
+        <v>11</v>
+      </c>
+      <c r="Y98" s="50"/>
+      <c r="Z98" s="25"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>12</v>
       </c>
@@ -4081,15 +6092,32 @@
         <v>3</v>
       </c>
       <c r="F99" s="26"/>
-      <c r="G99" s="27">
-        <v>50</v>
-      </c>
+      <c r="G99" s="27"/>
       <c r="H99" s="26"/>
-      <c r="I99" s="27">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="I99" s="27"/>
+      <c r="J99" s="27"/>
+      <c r="K99" s="42"/>
+      <c r="L99" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="N99" s="42"/>
+      <c r="O99" s="27">
+        <v>13</v>
+      </c>
+      <c r="Q99" s="42"/>
+      <c r="R99" s="27"/>
+      <c r="S99" s="42"/>
+      <c r="T99" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="V99" s="42"/>
+      <c r="W99" s="27">
+        <v>13</v>
+      </c>
+      <c r="Y99" s="42"/>
+      <c r="Z99" s="27"/>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
         <v>13</v>
       </c>
@@ -4110,11 +6138,30 @@
       </c>
       <c r="G100" s="25"/>
       <c r="H100" s="26"/>
-      <c r="I100" s="25">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="I100" s="25"/>
+      <c r="J100" s="25"/>
+      <c r="K100" s="50"/>
+      <c r="L100" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="N100" s="50"/>
+      <c r="O100" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q100" s="50"/>
+      <c r="R100" s="25"/>
+      <c r="S100" s="50"/>
+      <c r="T100" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V100" s="50"/>
+      <c r="W100" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y100" s="50"/>
+      <c r="Z100" s="25"/>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>14</v>
       </c>
@@ -4138,8 +6185,29 @@
         <v>315</v>
       </c>
       <c r="I101" s="25"/>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="J101" s="25"/>
+      <c r="K101" s="50"/>
+      <c r="L101" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="N101" s="50"/>
+      <c r="O101" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q101" s="50"/>
+      <c r="R101" s="25"/>
+      <c r="S101" s="50"/>
+      <c r="T101" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V101" s="50"/>
+      <c r="W101" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y101" s="50"/>
+      <c r="Z101" s="25"/>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A102" s="6">
         <v>15</v>
       </c>
@@ -4160,11 +6228,30 @@
       </c>
       <c r="G102" s="25"/>
       <c r="H102" s="26"/>
-      <c r="I102" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="I102" s="25"/>
+      <c r="J102" s="25"/>
+      <c r="K102" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="L102" s="27"/>
+      <c r="N102" s="26"/>
+      <c r="O102" s="27">
+        <v>14</v>
+      </c>
+      <c r="Q102" s="26"/>
+      <c r="R102" s="27"/>
+      <c r="S102" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="T102" s="27"/>
+      <c r="V102" s="26"/>
+      <c r="W102" s="27">
+        <v>14</v>
+      </c>
+      <c r="Y102" s="26"/>
+      <c r="Z102" s="27"/>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>16</v>
       </c>
@@ -4188,8 +6275,29 @@
         <v>315</v>
       </c>
       <c r="I103" s="25"/>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103" s="25"/>
+      <c r="K103" s="50"/>
+      <c r="L103" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="N103" s="50"/>
+      <c r="O103" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q103" s="50"/>
+      <c r="R103" s="25"/>
+      <c r="S103" s="50"/>
+      <c r="T103" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V103" s="50"/>
+      <c r="W103" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y103" s="50"/>
+      <c r="Z103" s="25"/>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
         <v>17</v>
       </c>
@@ -4213,8 +6321,25 @@
         <v>315</v>
       </c>
       <c r="I104" s="25"/>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="J104" s="25"/>
+      <c r="K104" s="26"/>
+      <c r="L104" s="25"/>
+      <c r="N104" s="26"/>
+      <c r="O104" s="25">
+        <v>17</v>
+      </c>
+      <c r="Q104" s="26"/>
+      <c r="R104" s="25"/>
+      <c r="S104" s="26"/>
+      <c r="T104" s="25"/>
+      <c r="V104" s="26"/>
+      <c r="W104" s="25">
+        <v>17</v>
+      </c>
+      <c r="Y104" s="26"/>
+      <c r="Z104" s="25"/>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>18</v>
       </c>
@@ -4231,15 +6356,32 @@
         <v>3</v>
       </c>
       <c r="F105" s="26"/>
-      <c r="G105" s="25">
-        <v>50</v>
-      </c>
+      <c r="G105" s="25"/>
       <c r="H105" s="26"/>
-      <c r="I105" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="I105" s="25"/>
+      <c r="J105" s="25"/>
+      <c r="K105" s="50"/>
+      <c r="L105" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="N105" s="50"/>
+      <c r="O105" s="25">
+        <v>14</v>
+      </c>
+      <c r="Q105" s="50"/>
+      <c r="R105" s="25"/>
+      <c r="S105" s="50"/>
+      <c r="T105" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V105" s="50"/>
+      <c r="W105" s="25">
+        <v>14</v>
+      </c>
+      <c r="Y105" s="50"/>
+      <c r="Z105" s="25"/>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A106" s="6">
         <v>19</v>
       </c>
@@ -4256,15 +6398,36 @@
         <v>3</v>
       </c>
       <c r="F106" s="24"/>
-      <c r="G106" s="27">
-        <v>90</v>
-      </c>
+      <c r="G106" s="27"/>
       <c r="H106" s="26"/>
-      <c r="I106" s="27">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="I106" s="27"/>
+      <c r="J106" s="27"/>
+      <c r="K106" s="50"/>
+      <c r="L106" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="N106" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="O106" s="25">
+        <v>14</v>
+      </c>
+      <c r="Q106" s="50"/>
+      <c r="R106" s="25"/>
+      <c r="S106" s="50"/>
+      <c r="T106" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V106" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="W106" s="25">
+        <v>14</v>
+      </c>
+      <c r="Y106" s="50"/>
+      <c r="Z106" s="25"/>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>20</v>
       </c>
@@ -4285,11 +6448,30 @@
       </c>
       <c r="G107" s="25"/>
       <c r="H107" s="26"/>
-      <c r="I107" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="I107" s="25"/>
+      <c r="J107" s="25"/>
+      <c r="K107" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="L107" s="25"/>
+      <c r="N107" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="O107" s="25"/>
+      <c r="Q107" s="26"/>
+      <c r="R107" s="25"/>
+      <c r="S107" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="T107" s="25"/>
+      <c r="V107" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="W107" s="25"/>
+      <c r="Y107" s="26"/>
+      <c r="Z107" s="25"/>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A108" s="6">
         <v>21</v>
       </c>
@@ -4313,8 +6495,29 @@
         <v>315</v>
       </c>
       <c r="I108" s="25"/>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="J108" s="25"/>
+      <c r="K108" s="50"/>
+      <c r="L108" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="N108" s="50"/>
+      <c r="O108" s="25">
+        <v>13</v>
+      </c>
+      <c r="Q108" s="50"/>
+      <c r="R108" s="25"/>
+      <c r="S108" s="50"/>
+      <c r="T108" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V108" s="50"/>
+      <c r="W108" s="25">
+        <v>13</v>
+      </c>
+      <c r="Y108" s="50"/>
+      <c r="Z108" s="25"/>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>22</v>
       </c>
@@ -4335,11 +6538,34 @@
       </c>
       <c r="G109" s="25"/>
       <c r="H109" s="26"/>
-      <c r="I109" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="I109" s="25"/>
+      <c r="J109" s="25"/>
+      <c r="K109" s="42"/>
+      <c r="L109" s="24">
+        <v>16</v>
+      </c>
+      <c r="N109" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="O109" s="24">
+        <v>16</v>
+      </c>
+      <c r="Q109" s="42"/>
+      <c r="R109" s="24"/>
+      <c r="S109" s="42"/>
+      <c r="T109" s="24">
+        <v>16</v>
+      </c>
+      <c r="V109" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="W109" s="24">
+        <v>16</v>
+      </c>
+      <c r="Y109" s="42"/>
+      <c r="Z109" s="24"/>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A110" s="6">
         <v>23</v>
       </c>
@@ -4361,8 +6587,29 @@
       <c r="G110" s="25"/>
       <c r="H110" s="26"/>
       <c r="I110" s="25"/>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="J110" s="25"/>
+      <c r="K110" s="50"/>
+      <c r="L110" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="N110" s="50"/>
+      <c r="O110" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q110" s="50"/>
+      <c r="R110" s="25"/>
+      <c r="S110" s="50"/>
+      <c r="T110" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V110" s="50"/>
+      <c r="W110" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y110" s="50"/>
+      <c r="Z110" s="25"/>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>24</v>
       </c>
@@ -4379,15 +6626,32 @@
         <v>3</v>
       </c>
       <c r="F111" s="24"/>
-      <c r="G111" s="27">
-        <v>50</v>
-      </c>
+      <c r="G111" s="27"/>
       <c r="H111" s="26"/>
-      <c r="I111" s="27">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="I111" s="27"/>
+      <c r="J111" s="27"/>
+      <c r="K111" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="L111" s="25"/>
+      <c r="N111" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="O111" s="25"/>
+      <c r="Q111" s="26"/>
+      <c r="R111" s="25"/>
+      <c r="S111" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="T111" s="25"/>
+      <c r="V111" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="W111" s="25"/>
+      <c r="Y111" s="26"/>
+      <c r="Z111" s="25"/>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A112" s="6">
         <v>25</v>
       </c>
@@ -4404,15 +6668,32 @@
         <v>3</v>
       </c>
       <c r="F112" s="24"/>
-      <c r="G112" s="27">
-        <v>85</v>
-      </c>
+      <c r="G112" s="27"/>
       <c r="H112" s="26"/>
-      <c r="I112" s="27">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="I112" s="27"/>
+      <c r="J112" s="27"/>
+      <c r="K112" s="50"/>
+      <c r="L112" s="25">
+        <v>14</v>
+      </c>
+      <c r="N112" s="50"/>
+      <c r="O112" s="25">
+        <v>14</v>
+      </c>
+      <c r="Q112" s="50"/>
+      <c r="R112" s="25"/>
+      <c r="S112" s="50"/>
+      <c r="T112" s="25">
+        <v>14</v>
+      </c>
+      <c r="V112" s="50"/>
+      <c r="W112" s="25">
+        <v>14</v>
+      </c>
+      <c r="Y112" s="50"/>
+      <c r="Z112" s="25"/>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>26</v>
       </c>
@@ -4431,11 +6712,26 @@
       <c r="F113" s="24"/>
       <c r="G113" s="27"/>
       <c r="H113" s="26"/>
-      <c r="I113" s="27">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="I113" s="27"/>
+      <c r="J113" s="27"/>
+      <c r="K113" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="L113" s="25"/>
+      <c r="N113" s="26"/>
+      <c r="O113" s="25"/>
+      <c r="Q113" s="26"/>
+      <c r="R113" s="25"/>
+      <c r="S113" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="T113" s="25"/>
+      <c r="V113" s="26"/>
+      <c r="W113" s="25"/>
+      <c r="Y113" s="26"/>
+      <c r="Z113" s="25"/>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A114" s="6">
         <v>27</v>
       </c>
@@ -4452,15 +6748,32 @@
         <v>3</v>
       </c>
       <c r="F114" s="24"/>
-      <c r="G114" s="27">
-        <v>85</v>
-      </c>
+      <c r="G114" s="27"/>
       <c r="H114" s="26"/>
-      <c r="I114" s="27">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="I114" s="27"/>
+      <c r="J114" s="27"/>
+      <c r="K114" s="42"/>
+      <c r="L114" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="N114" s="42"/>
+      <c r="O114" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q114" s="42"/>
+      <c r="R114" s="27"/>
+      <c r="S114" s="42"/>
+      <c r="T114" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="V114" s="42"/>
+      <c r="W114" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y114" s="42"/>
+      <c r="Z114" s="27"/>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>28</v>
       </c>
@@ -4481,11 +6794,34 @@
       </c>
       <c r="G115" s="25"/>
       <c r="H115" s="26"/>
-      <c r="I115" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+      <c r="I115" s="25"/>
+      <c r="J115" s="25"/>
+      <c r="K115" s="42"/>
+      <c r="L115" s="27">
+        <v>14</v>
+      </c>
+      <c r="N115" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="O115" s="27">
+        <v>14</v>
+      </c>
+      <c r="Q115" s="42"/>
+      <c r="R115" s="27"/>
+      <c r="S115" s="42"/>
+      <c r="T115" s="27">
+        <v>14</v>
+      </c>
+      <c r="V115" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="W115" s="27">
+        <v>14</v>
+      </c>
+      <c r="Y115" s="42"/>
+      <c r="Z115" s="27"/>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A116" s="6">
         <v>29</v>
       </c>
@@ -4506,11 +6842,30 @@
       </c>
       <c r="G116" s="27"/>
       <c r="H116" s="26"/>
-      <c r="I116" s="27">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="I116" s="27"/>
+      <c r="J116" s="27"/>
+      <c r="K116" s="53"/>
+      <c r="L116" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="N116" s="53"/>
+      <c r="O116" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q116" s="53"/>
+      <c r="R116" s="27"/>
+      <c r="S116" s="53"/>
+      <c r="T116" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="V116" s="53"/>
+      <c r="W116" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y116" s="53"/>
+      <c r="Z116" s="27"/>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>30</v>
       </c>
@@ -4527,15 +6882,32 @@
         <v>3</v>
       </c>
       <c r="F117" s="24"/>
-      <c r="G117" s="25">
-        <v>50</v>
-      </c>
+      <c r="G117" s="25"/>
       <c r="H117" s="26"/>
-      <c r="I117" s="25">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="I117" s="25"/>
+      <c r="J117" s="25"/>
+      <c r="K117" s="50"/>
+      <c r="L117" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="N117" s="50"/>
+      <c r="O117" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q117" s="50"/>
+      <c r="R117" s="25"/>
+      <c r="S117" s="50"/>
+      <c r="T117" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V117" s="50"/>
+      <c r="W117" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y117" s="50"/>
+      <c r="Z117" s="25"/>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A118" s="6">
         <v>31</v>
       </c>
@@ -4552,15 +6924,32 @@
         <v>3</v>
       </c>
       <c r="F118" s="24"/>
-      <c r="G118" s="27">
-        <v>0</v>
-      </c>
+      <c r="G118" s="27"/>
       <c r="H118" s="26"/>
-      <c r="I118" s="27">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="I118" s="27"/>
+      <c r="J118" s="27"/>
+      <c r="K118" s="50"/>
+      <c r="L118" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="N118" s="50"/>
+      <c r="O118" s="27">
+        <v>14</v>
+      </c>
+      <c r="Q118" s="50"/>
+      <c r="R118" s="27"/>
+      <c r="S118" s="50"/>
+      <c r="T118" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="V118" s="50"/>
+      <c r="W118" s="27">
+        <v>14</v>
+      </c>
+      <c r="Y118" s="50"/>
+      <c r="Z118" s="27"/>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>32</v>
       </c>
@@ -4577,15 +6966,32 @@
         <v>3</v>
       </c>
       <c r="F119" s="26"/>
-      <c r="G119" s="27">
-        <v>70</v>
-      </c>
+      <c r="G119" s="27"/>
       <c r="H119" s="26"/>
-      <c r="I119" s="27">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="I119" s="27"/>
+      <c r="J119" s="27"/>
+      <c r="K119" s="42"/>
+      <c r="L119" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="N119" s="42"/>
+      <c r="O119" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q119" s="42"/>
+      <c r="R119" s="25"/>
+      <c r="S119" s="42"/>
+      <c r="T119" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V119" s="42"/>
+      <c r="W119" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y119" s="42"/>
+      <c r="Z119" s="25"/>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A120" s="6">
         <v>33</v>
       </c>
@@ -4606,11 +7012,34 @@
       </c>
       <c r="G120" s="25"/>
       <c r="H120" s="26"/>
-      <c r="I120" s="25">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="I120" s="25"/>
+      <c r="J120" s="25"/>
+      <c r="K120" s="42"/>
+      <c r="L120" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="N120" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="O120" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q120" s="42"/>
+      <c r="R120" s="27"/>
+      <c r="S120" s="42"/>
+      <c r="T120" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="V120" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="W120" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y120" s="42"/>
+      <c r="Z120" s="27"/>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>34</v>
       </c>
@@ -4631,11 +7060,30 @@
       </c>
       <c r="G121" s="25"/>
       <c r="H121" s="26"/>
-      <c r="I121" s="25">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="I121" s="25"/>
+      <c r="J121" s="25"/>
+      <c r="K121" s="50"/>
+      <c r="L121" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="N121" s="50"/>
+      <c r="O121" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q121" s="50"/>
+      <c r="R121" s="27"/>
+      <c r="S121" s="50"/>
+      <c r="T121" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="V121" s="50"/>
+      <c r="W121" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y121" s="50"/>
+      <c r="Z121" s="27"/>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A122" s="6">
         <v>35</v>
       </c>
@@ -4656,11 +7104,30 @@
       </c>
       <c r="G122" s="25"/>
       <c r="H122" s="26"/>
-      <c r="I122" s="25">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="I122" s="25"/>
+      <c r="J122" s="25"/>
+      <c r="K122" s="50"/>
+      <c r="L122" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="N122" s="50"/>
+      <c r="O122" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q122" s="50"/>
+      <c r="R122" s="25"/>
+      <c r="S122" s="50"/>
+      <c r="T122" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V122" s="50"/>
+      <c r="W122" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y122" s="50"/>
+      <c r="Z122" s="25"/>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>36</v>
       </c>
@@ -4681,11 +7148,34 @@
       </c>
       <c r="G123" s="25"/>
       <c r="H123" s="26"/>
-      <c r="I123" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="I123" s="25"/>
+      <c r="J123" s="25"/>
+      <c r="K123" s="50"/>
+      <c r="L123" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="N123" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="O123" s="25">
+        <v>14</v>
+      </c>
+      <c r="Q123" s="50"/>
+      <c r="R123" s="25"/>
+      <c r="S123" s="50"/>
+      <c r="T123" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V123" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="W123" s="25">
+        <v>14</v>
+      </c>
+      <c r="Y123" s="50"/>
+      <c r="Z123" s="25"/>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A124" s="6">
         <v>37</v>
       </c>
@@ -4706,11 +7196,82 @@
       </c>
       <c r="G124" s="25"/>
       <c r="H124" s="26"/>
-      <c r="I124" s="25">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="140" spans="7:9">
+      <c r="I124" s="25"/>
+      <c r="J124" s="25"/>
+      <c r="K124" s="50"/>
+      <c r="L124" s="25">
+        <v>14</v>
+      </c>
+      <c r="N124" s="50"/>
+      <c r="O124" s="25">
+        <v>14</v>
+      </c>
+      <c r="Q124" s="50"/>
+      <c r="R124" s="25"/>
+      <c r="S124" s="50"/>
+      <c r="T124" s="25">
+        <v>14</v>
+      </c>
+      <c r="V124" s="50"/>
+      <c r="W124" s="25">
+        <v>14</v>
+      </c>
+      <c r="Y124" s="50"/>
+      <c r="Z124" s="25"/>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="K125" s="50"/>
+      <c r="L125" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="N125" s="50"/>
+      <c r="O125" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q125" s="50"/>
+      <c r="R125" s="25"/>
+      <c r="S125" s="50"/>
+      <c r="T125" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V125" s="50"/>
+      <c r="W125" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y125" s="50"/>
+      <c r="Z125" s="25"/>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="K126" s="50"/>
+      <c r="L126" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="N126" s="50"/>
+      <c r="O126" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q126" s="50"/>
+      <c r="R126" s="54"/>
+      <c r="S126" s="50"/>
+      <c r="T126" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V126" s="50"/>
+      <c r="W126" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y126" s="50"/>
+      <c r="Z126" s="54"/>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="O127" s="20">
+        <v>14</v>
+      </c>
+      <c r="W127" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="7:26" x14ac:dyDescent="0.35">
       <c r="G140" s="20" t="s">
         <v>316</v>
       </c>
@@ -4718,18 +7279,56 @@
         <v>316</v>
       </c>
     </row>
+    <row r="142" spans="7:26" x14ac:dyDescent="0.35">
+      <c r="L142" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="O142" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="R142" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="T142" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="W142" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z142" s="20" t="s">
+        <v>316</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="28">
+    <mergeCell ref="Y91:Z91"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="Q91:R91"/>
+    <mergeCell ref="S91:T91"/>
+    <mergeCell ref="V91:W91"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="F46:G46"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="H86:I86"/>
     <mergeCell ref="F86:G86"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="F46:G46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
